--- a/biology/Botanique/Brocchinia_reducta/Brocchinia_reducta.xlsx
+++ b/biology/Botanique/Brocchinia_reducta/Brocchinia_reducta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brocchinia reducta est une espèce de plante carnivore tropicale de la famille des Bromeliaceae que l'on rencontre dans quelques lieux du Venezuela. Au sein de la vingtaine d'espèces du genre Brocchinia, seuls B. reducta et B. hechtioides sont carnivores.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est en l'honneur du naturaliste italien G. Brocchi qu'en 1830 J.H. Schultes attribue ce nom à cette plante.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se rencontre dans les zones au climat humide dans les hautes savanes et les tepuys au Venezuela, ainsi que dans les hautes landes et plateaux du Guyana.
 </t>
@@ -573,14 +589,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante mesure 50 cm de haut et la hampe florale 60 à 70 cm de haut. Les fleurs sont blanches, de 5mm de diamètre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante mesure 50 cm de haut et la hampe florale 60 à 70 cm de haut. Les fleurs sont blanches, de 5mm de diamètre.
 Plante terrestre, vivace et dressée, Brocchinia reducta possède des feuilles étroites en forme de gouttière, de couleur verte ou jaune, forment un cornet tubulaire qui recueille l'eau dans laquelle viennent se noyer les insectes.
 Parmi les espèces du genre Brocchinia, seules deux espèces B. reducta et B. hechtioides sont considérées comme protocarnivores ; ce sont des bactéries qui digèrent les parties non chitineuses des proies car il n'y a pas d'enzymes. L'absorption se réalise grâce à des petits poils glanduleux appelés trichomes.  
 Brocchinia reducta et B. hechtioides sont toutes deux des plantes en partie épiphyte. Elles peuvent pousser sur le sol mais aussi sur d'autres végétaux tels que des arbres.
-Fleurs
-La taille des inflorescences par rapport à la plante est démesurée : les fleurs sont blanches et atteignent rarement plus de 5 mm.
 </t>
         </is>
       </c>
@@ -606,10 +622,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille des inflorescences par rapport à la plante est démesurée : les fleurs sont blanches et atteignent rarement plus de 5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brocchinia_reducta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brocchinia_reducta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les bromeliacées sont, en général, plutôt simple à cultiver. On en trouve de toute sorte, en plantes décoratives. Cependant, les variétés carnivores demandent des conditions plus dures à réaliser que les autres : 
 Températures : de 20 à 35 °C en été, et 10 à 18 °C en hiver. L'humidité doit être située entre 40 et 80 %.
